--- a/data_input/Hydrogen_load.xlsx
+++ b/data_input/Hydrogen_load.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/antonio_m_coelho_office365_inesctec_pt/Documents/INESC TEC/2024 - IEEE ISGT/Paper 2/MyCode/Hydrogen_fuel_hub_planning/data_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{359B5DFE-3509-4F9D-B66B-1B81D997A711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{359B5DFE-3509-4F9D-B66B-1B81D997A711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BBB8474-4239-48D1-A8B6-2C3AFE35E6DB}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{60730181-434C-4C5E-A3FC-C4A59D91C522}"/>
   </bookViews>
@@ -429,13 +429,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235D6C48-2044-43BF-AEB9-F357E629EC91}">
   <dimension ref="A1:D480"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="P465" sqref="P465"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -494,7 +494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -506,10 +506,10 @@
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.2799999999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -521,10 +521,10 @@
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -536,10 +536,10 @@
       </c>
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -551,10 +551,10 @@
       </c>
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -566,10 +566,10 @@
       </c>
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -581,10 +581,10 @@
       </c>
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28.650000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -596,10 +596,10 @@
       </c>
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -611,10 +611,10 @@
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.649999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -626,10 +626,10 @@
       </c>
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -641,10 +641,10 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -656,10 +656,10 @@
       </c>
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -671,10 +671,10 @@
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.299999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -686,10 +686,10 @@
       </c>
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -701,10 +701,10 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.100000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1</v>
       </c>
@@ -716,10 +716,10 @@
       </c>
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.800000000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -731,10 +731,10 @@
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>30.900000000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+        <v>22.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>1</v>
       </c>
@@ -746,10 +746,10 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -761,10 +761,10 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>1</v>
       </c>
@@ -776,10 +776,10 @@
       </c>
       <c r="D23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -791,10 +791,10 @@
       </c>
       <c r="D24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>1</v>
       </c>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
         <f>A2+1</f>
         <v>2</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
         <f t="shared" ref="A27:A90" si="1">A3+1</f>
         <v>2</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -878,10 +878,10 @@
       </c>
       <c r="D29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -896,10 +896,10 @@
       </c>
       <c r="D30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -914,10 +914,10 @@
       </c>
       <c r="D31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -932,10 +932,10 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -950,10 +950,10 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+        <v>22.200000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -968,10 +968,10 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+        <v>25.200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -986,10 +986,10 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>14.299999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1004,10 +1004,10 @@
       </c>
       <c r="D36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1022,10 +1022,10 @@
       </c>
       <c r="D37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1040,10 +1040,10 @@
       </c>
       <c r="D38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1058,10 +1058,10 @@
       </c>
       <c r="D39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1076,10 +1076,10 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1094,10 +1094,10 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1112,10 +1112,10 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>22.9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+        <v>15.600000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1130,10 +1130,10 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>27.400000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1148,10 +1148,10 @@
       </c>
       <c r="D44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>28.950000000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1166,10 +1166,10 @@
       </c>
       <c r="D45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.400000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1184,10 +1184,10 @@
       </c>
       <c r="D46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1202,10 +1202,10 @@
       </c>
       <c r="D47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.8999999999999995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1220,10 +1220,10 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1277,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1295,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1310,10 +1310,10 @@
       </c>
       <c r="D53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1328,10 +1328,10 @@
       </c>
       <c r="D54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1346,10 +1346,10 @@
       </c>
       <c r="D55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.9500000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1364,10 +1364,10 @@
       </c>
       <c r="D56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>18.799999999999997</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1382,10 +1382,10 @@
       </c>
       <c r="D57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>41.400000000000006</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1400,10 +1400,10 @@
       </c>
       <c r="D58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>34.049999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1418,10 +1418,10 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>13.700000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1436,10 +1436,10 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1454,10 +1454,10 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9500000000000011</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1472,10 +1472,10 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1000000000000014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1490,10 +1490,10 @@
       </c>
       <c r="D63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1508,10 +1508,10 @@
       </c>
       <c r="D64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>11.15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.6499999999999995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1526,10 +1526,10 @@
       </c>
       <c r="D65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6499999999999995</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.400000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1544,10 +1544,10 @@
       </c>
       <c r="D66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1562,10 +1562,10 @@
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D130" ca="1" si="5">(RANDBETWEEN(10,130)/100+1)*C67</f>
-        <v>43.2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.5">
+        <v>28.599999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1580,10 +1580,10 @@
       </c>
       <c r="D68" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22.65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.5">
+        <v>23.549999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1598,10 +1598,10 @@
       </c>
       <c r="D69" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.5">
+        <v>13.900000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1619,7 +1619,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1634,10 +1634,10 @@
       </c>
       <c r="D71" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3500000000000014</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1652,10 +1652,10 @@
       </c>
       <c r="D72" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4399999999999995</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1727,7 +1727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1742,10 +1742,10 @@
       </c>
       <c r="D77" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1760,10 +1760,10 @@
       </c>
       <c r="D78" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1778,10 +1778,10 @@
       </c>
       <c r="D79" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.3999999999999986</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1796,10 +1796,10 @@
       </c>
       <c r="D80" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.700000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1814,10 +1814,10 @@
       </c>
       <c r="D81" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.5">
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1832,10 +1832,10 @@
       </c>
       <c r="D82" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.5">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1850,10 +1850,10 @@
       </c>
       <c r="D83" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.900000000000002</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1868,10 +1868,10 @@
       </c>
       <c r="D84" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1886,10 +1886,10 @@
       </c>
       <c r="D85" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.65</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1904,10 +1904,10 @@
       </c>
       <c r="D86" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1922,10 +1922,10 @@
       </c>
       <c r="D87" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1940,10 +1940,10 @@
       </c>
       <c r="D88" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1958,10 +1958,10 @@
       </c>
       <c r="D89" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -1976,10 +1976,10 @@
       </c>
       <c r="D90" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+        <v>18.900000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91">
         <f t="shared" ref="A91:A154" si="7">A67+1</f>
         <v>4</v>
@@ -1994,10 +1994,10 @@
       </c>
       <c r="D91" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>32.400000000000006</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -2012,10 +2012,10 @@
       </c>
       <c r="D92" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.849999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -2030,10 +2030,10 @@
       </c>
       <c r="D93" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -2048,10 +2048,10 @@
       </c>
       <c r="D94" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -2066,10 +2066,10 @@
       </c>
       <c r="D95" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>10.600000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -2084,10 +2084,10 @@
       </c>
       <c r="D96" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2174,10 +2174,10 @@
       </c>
       <c r="D101" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0600000000000005</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2192,10 +2192,10 @@
       </c>
       <c r="D102" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.0499999999999989</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2210,10 +2210,10 @@
       </c>
       <c r="D103" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>10.55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2228,10 +2228,10 @@
       </c>
       <c r="D104" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2246,10 +2246,10 @@
       </c>
       <c r="D105" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>23.799999999999997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.5">
+        <v>32.800000000000004</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2264,10 +2264,10 @@
       </c>
       <c r="D106" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>25.349999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2282,10 +2282,10 @@
       </c>
       <c r="D107" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>22.599999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2300,10 +2300,10 @@
       </c>
       <c r="D108" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2318,10 +2318,10 @@
       </c>
       <c r="D109" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5500000000000007</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2336,10 +2336,10 @@
       </c>
       <c r="D110" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2354,10 +2354,10 @@
       </c>
       <c r="D111" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>8.1000000000000014</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2372,10 +2372,10 @@
       </c>
       <c r="D112" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7999999999999989</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.3999999999999986</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2390,10 +2390,10 @@
       </c>
       <c r="D113" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2408,10 +2408,10 @@
       </c>
       <c r="D114" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>18.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2426,10 +2426,10 @@
       </c>
       <c r="D115" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>32.199999999999996</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2444,10 +2444,10 @@
       </c>
       <c r="D116" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2462,10 +2462,10 @@
       </c>
       <c r="D117" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2480,10 +2480,10 @@
       </c>
       <c r="D118" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2498,10 +2498,10 @@
       </c>
       <c r="D119" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6.7999999999999989</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2516,10 +2516,10 @@
       </c>
       <c r="D120" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7199999999999998</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121">
         <f t="shared" si="7"/>
         <v>5</v>
@@ -2537,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2606,10 +2606,10 @@
       </c>
       <c r="D125" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>2.7199999999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2624,10 +2624,10 @@
       </c>
       <c r="D126" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.099999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2642,10 +2642,10 @@
       </c>
       <c r="D127" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2660,10 +2660,10 @@
       </c>
       <c r="D128" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>11.299999999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.5">
+        <v>22.800000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2678,10 +2678,10 @@
       </c>
       <c r="D129" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2696,10 +2696,10 @@
       </c>
       <c r="D130" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.5">
+        <v>29.099999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2714,10 +2714,10 @@
       </c>
       <c r="D131" s="2">
         <f t="shared" ref="D131:D194" ca="1" si="11">(RANDBETWEEN(10,130)/100+1)*C131</f>
-        <v>20.9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.100000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2732,10 +2732,10 @@
       </c>
       <c r="D132" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2750,10 +2750,10 @@
       </c>
       <c r="D133" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10.600000000000001</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2768,10 +2768,10 @@
       </c>
       <c r="D134" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2786,10 +2786,10 @@
       </c>
       <c r="D135" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2804,10 +2804,10 @@
       </c>
       <c r="D136" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10.899999999999999</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2822,10 +2822,10 @@
       </c>
       <c r="D137" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6000000000000005</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2840,10 +2840,10 @@
       </c>
       <c r="D138" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2858,10 +2858,10 @@
       </c>
       <c r="D139" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.5">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2876,10 +2876,10 @@
       </c>
       <c r="D140" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>28.2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.5">
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2894,10 +2894,10 @@
       </c>
       <c r="D141" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.5">
+        <v>16.299999999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2912,10 +2912,10 @@
       </c>
       <c r="D142" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2930,10 +2930,10 @@
       </c>
       <c r="D143" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11.299999999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.649999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2948,10 +2948,10 @@
       </c>
       <c r="D144" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145">
         <f t="shared" si="7"/>
         <v>6</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -2987,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3038,10 +3038,10 @@
       </c>
       <c r="D149" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3056,10 +3056,10 @@
       </c>
       <c r="D150" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11.15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3074,10 +3074,10 @@
       </c>
       <c r="D151" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.05</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3092,10 +3092,10 @@
       </c>
       <c r="D152" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>22.599999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3110,10 +3110,10 @@
       </c>
       <c r="D153" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.5">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154">
         <f t="shared" si="7"/>
         <v>7</v>
@@ -3128,10 +3128,10 @@
       </c>
       <c r="D154" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18.600000000000001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155">
         <f t="shared" ref="A155:A218" si="13">A131+1</f>
         <v>7</v>
@@ -3146,10 +3146,10 @@
       </c>
       <c r="D155" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20.099999999999998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3164,10 +3164,10 @@
       </c>
       <c r="D156" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3182,10 +3182,10 @@
       </c>
       <c r="D157" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.1000000000000014</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3200,10 +3200,10 @@
       </c>
       <c r="D158" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5500000000000007</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3218,10 +3218,10 @@
       </c>
       <c r="D159" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3236,10 +3236,10 @@
       </c>
       <c r="D160" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3254,10 +3254,10 @@
       </c>
       <c r="D161" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3272,10 +3272,10 @@
       </c>
       <c r="D162" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>18.399999999999999</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.5">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3290,10 +3290,10 @@
       </c>
       <c r="D163" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>38.200000000000003</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.5">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3308,10 +3308,10 @@
       </c>
       <c r="D164" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.5">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3326,10 +3326,10 @@
       </c>
       <c r="D165" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>21.799999999999997</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.799999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3344,10 +3344,10 @@
       </c>
       <c r="D166" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7.1499999999999995</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3362,10 +3362,10 @@
       </c>
       <c r="D167" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.8500000000000005</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3380,10 +3380,10 @@
       </c>
       <c r="D168" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3470,10 +3470,10 @@
       </c>
       <c r="D173" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3488,10 +3488,10 @@
       </c>
       <c r="D174" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.9499999999999993</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3506,10 +3506,10 @@
       </c>
       <c r="D175" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>11.15</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3524,10 +3524,10 @@
       </c>
       <c r="D176" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20.300000000000004</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3542,10 +3542,10 @@
       </c>
       <c r="D177" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>33.200000000000003</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.5">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3560,10 +3560,10 @@
       </c>
       <c r="D178" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>31.95</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.45</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3578,10 +3578,10 @@
       </c>
       <c r="D179" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>17.899999999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.5">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3596,10 +3596,10 @@
       </c>
       <c r="D180" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3614,10 +3614,10 @@
       </c>
       <c r="D181" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3632,10 +3632,10 @@
       </c>
       <c r="D182" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3650,10 +3650,10 @@
       </c>
       <c r="D183" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.0499999999999989</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3668,10 +3668,10 @@
       </c>
       <c r="D184" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3686,10 +3686,10 @@
       </c>
       <c r="D185" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>9.3999999999999986</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3704,10 +3704,10 @@
       </c>
       <c r="D186" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3722,10 +3722,10 @@
       </c>
       <c r="D187" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43.4</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.5">
+        <v>35.200000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3740,10 +3740,10 @@
       </c>
       <c r="D188" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>20.7</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3758,10 +3758,10 @@
       </c>
       <c r="D189" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.5">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3776,10 +3776,10 @@
       </c>
       <c r="D190" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3794,10 +3794,10 @@
       </c>
       <c r="D191" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.8500000000000005</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3812,10 +3812,10 @@
       </c>
       <c r="D192" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>2.2599999999999998</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193">
         <f t="shared" si="13"/>
         <v>8</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3902,10 +3902,10 @@
       </c>
       <c r="D197" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>3.3600000000000003</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3920,10 +3920,10 @@
       </c>
       <c r="D198" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3938,10 +3938,10 @@
       </c>
       <c r="D199" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.0499999999999989</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3956,10 +3956,10 @@
       </c>
       <c r="D200" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.5">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3974,10 +3974,10 @@
       </c>
       <c r="D201" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>40.799999999999997</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A202">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -3992,10 +3992,10 @@
       </c>
       <c r="D202" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.5">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A203">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4010,10 +4010,10 @@
       </c>
       <c r="D203" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>15.600000000000001</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.799999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A204">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4028,10 +4028,10 @@
       </c>
       <c r="D204" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.8500000000000005</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A205">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4046,10 +4046,10 @@
       </c>
       <c r="D205" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A206">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4064,10 +4064,10 @@
       </c>
       <c r="D206" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A207">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4082,10 +4082,10 @@
       </c>
       <c r="D207" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A208">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4100,10 +4100,10 @@
       </c>
       <c r="D208" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8.5500000000000007</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A209">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4118,10 +4118,10 @@
       </c>
       <c r="D209" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9499999999999993</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A210">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4136,10 +4136,10 @@
       </c>
       <c r="D210" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.5">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A211">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4154,10 +4154,10 @@
       </c>
       <c r="D211" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.5">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A212">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4172,10 +4172,10 @@
       </c>
       <c r="D212" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A213">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4190,10 +4190,10 @@
       </c>
       <c r="D213" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A214">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4208,10 +4208,10 @@
       </c>
       <c r="D214" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A215">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4226,10 +4226,10 @@
       </c>
       <c r="D215" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A216">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4244,10 +4244,10 @@
       </c>
       <c r="D216" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>4.54</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A217">
         <f t="shared" si="13"/>
         <v>9</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A218">
         <f t="shared" si="13"/>
         <v>10</v>
@@ -4283,7 +4283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A219">
         <f t="shared" ref="A219:A282" si="19">A195+1</f>
         <v>10</v>
@@ -4301,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A220">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4319,7 +4319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A221">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4334,10 +4334,10 @@
       </c>
       <c r="D221" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A222">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4352,10 +4352,10 @@
       </c>
       <c r="D222" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.600000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A223">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4370,10 +4370,10 @@
       </c>
       <c r="D223" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A224">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4388,10 +4388,10 @@
       </c>
       <c r="D224" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>20.300000000000004</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A225">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4406,10 +4406,10 @@
       </c>
       <c r="D225" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>24.8</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A226">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4424,10 +4424,10 @@
       </c>
       <c r="D226" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>24.45</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.5">
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A227">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4442,10 +4442,10 @@
       </c>
       <c r="D227" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A228">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4460,10 +4460,10 @@
       </c>
       <c r="D228" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.299999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A229">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4478,10 +4478,10 @@
       </c>
       <c r="D229" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9499999999999993</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.5500000000000007</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A230">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4496,10 +4496,10 @@
       </c>
       <c r="D230" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>10.25</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.7999999999999989</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A231">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4514,10 +4514,10 @@
       </c>
       <c r="D231" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A232">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4532,10 +4532,10 @@
       </c>
       <c r="D232" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A233">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4550,10 +4550,10 @@
       </c>
       <c r="D233" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>5.6499999999999995</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A234">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4568,10 +4568,10 @@
       </c>
       <c r="D234" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>11.899999999999999</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A235">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4586,10 +4586,10 @@
       </c>
       <c r="D235" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>31.799999999999997</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.5">
+        <v>27.199999999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A236">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4604,10 +4604,10 @@
       </c>
       <c r="D236" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>16.650000000000002</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.5">
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A237">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4622,10 +4622,10 @@
       </c>
       <c r="D237" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.799999999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A238">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4640,10 +4640,10 @@
       </c>
       <c r="D238" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>10.55</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.9499999999999993</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A239">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4658,10 +4658,10 @@
       </c>
       <c r="D239" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.400000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A240">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4676,10 +4676,10 @@
       </c>
       <c r="D240" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>3.8600000000000003</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A241">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A242">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A243">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A244">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A245">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4766,10 +4766,10 @@
       </c>
       <c r="D245" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A246">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4784,10 +4784,10 @@
       </c>
       <c r="D246" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A247">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4802,10 +4802,10 @@
       </c>
       <c r="D247" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>5.9499999999999993</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A248">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4820,10 +4820,10 @@
       </c>
       <c r="D248" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A249">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4838,10 +4838,10 @@
       </c>
       <c r="D249" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>27.199999999999996</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A250">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4856,10 +4856,10 @@
       </c>
       <c r="D250" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.5">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A251">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4874,10 +4874,10 @@
       </c>
       <c r="D251" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>21.299999999999997</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A252">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4892,10 +4892,10 @@
       </c>
       <c r="D252" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.5500000000000007</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A253">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4910,10 +4910,10 @@
       </c>
       <c r="D253" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.899999999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A254">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4928,10 +4928,10 @@
       </c>
       <c r="D254" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A255">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4946,10 +4946,10 @@
       </c>
       <c r="D255" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>7.9499999999999993</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A256">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4964,10 +4964,10 @@
       </c>
       <c r="D256" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A257">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -4982,10 +4982,10 @@
       </c>
       <c r="D257" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.6000000000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A258">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5000,10 +5000,10 @@
       </c>
       <c r="D258" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A259">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5018,10 +5018,10 @@
       </c>
       <c r="D259" s="2">
         <f t="shared" ref="D259:D322" ca="1" si="23">(RANDBETWEEN(10,130)/100+1)*C259</f>
-        <v>32.800000000000004</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A260">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5036,10 +5036,10 @@
       </c>
       <c r="D260" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>26.7</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.5">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A261">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5054,10 +5054,10 @@
       </c>
       <c r="D261" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.5">
+        <v>16.099999999999998</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A262">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5072,10 +5072,10 @@
       </c>
       <c r="D262" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.0499999999999989</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A263">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5090,10 +5090,10 @@
       </c>
       <c r="D263" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.049999999999999</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A264">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5108,10 +5108,10 @@
       </c>
       <c r="D264" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A265">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A266">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A267">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A268">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A269">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5198,10 +5198,10 @@
       </c>
       <c r="D269" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A270">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5216,10 +5216,10 @@
       </c>
       <c r="D270" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A271">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5234,10 +5234,10 @@
       </c>
       <c r="D271" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A272">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5252,10 +5252,10 @@
       </c>
       <c r="D272" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.5">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A273">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5270,10 +5270,10 @@
       </c>
       <c r="D273" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.5">
+        <v>42.599999999999994</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A274">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5288,10 +5288,10 @@
       </c>
       <c r="D274" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.5">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A275">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5306,10 +5306,10 @@
       </c>
       <c r="D275" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>16.600000000000001</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A276">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5324,10 +5324,10 @@
       </c>
       <c r="D276" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>10.899999999999999</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A277">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5342,10 +5342,10 @@
       </c>
       <c r="D277" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A278">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5360,10 +5360,10 @@
       </c>
       <c r="D278" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A279">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5378,10 +5378,10 @@
       </c>
       <c r="D279" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A280">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5396,10 +5396,10 @@
       </c>
       <c r="D280" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>11.35</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A281">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5414,10 +5414,10 @@
       </c>
       <c r="D281" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A282">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -5432,10 +5432,10 @@
       </c>
       <c r="D282" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.5">
+        <v>22.800000000000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A283">
         <f t="shared" ref="A283:A346" si="25">A259+1</f>
         <v>12</v>
@@ -5450,10 +5450,10 @@
       </c>
       <c r="D283" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>28.799999999999997</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.5">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A284">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -5468,10 +5468,10 @@
       </c>
       <c r="D284" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>32.25</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.5">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A285">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -5486,10 +5486,10 @@
       </c>
       <c r="D285" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>22.599999999999998</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.799999999999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A286">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -5504,10 +5504,10 @@
       </c>
       <c r="D286" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>6.9500000000000011</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A287">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -5522,10 +5522,10 @@
       </c>
       <c r="D287" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>11.45</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A288">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -5540,10 +5540,10 @@
       </c>
       <c r="D288" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4.32</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A289">
         <f t="shared" si="25"/>
         <v>12</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A290">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A291">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A292">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A293">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5630,10 +5630,10 @@
       </c>
       <c r="D293" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4.12</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A294">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5648,10 +5648,10 @@
       </c>
       <c r="D294" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>10.85</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.150000000000002</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A295">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5666,10 +5666,10 @@
       </c>
       <c r="D295" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A296">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5684,10 +5684,10 @@
       </c>
       <c r="D296" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.5">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A297">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5702,10 +5702,10 @@
       </c>
       <c r="D297" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.5">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A298">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5720,10 +5720,10 @@
       </c>
       <c r="D298" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.5">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A299">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5738,10 +5738,10 @@
       </c>
       <c r="D299" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A300">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5756,10 +5756,10 @@
       </c>
       <c r="D300" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>11.099999999999998</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A301">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5774,10 +5774,10 @@
       </c>
       <c r="D301" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>9.1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A302">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5792,10 +5792,10 @@
       </c>
       <c r="D302" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A303">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5810,10 +5810,10 @@
       </c>
       <c r="D303" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.4500000000000011</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A304">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5828,10 +5828,10 @@
       </c>
       <c r="D304" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>10.049999999999999</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A305">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5846,10 +5846,10 @@
       </c>
       <c r="D305" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>9.4500000000000011</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.8999999999999995</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A306">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5864,10 +5864,10 @@
       </c>
       <c r="D306" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A307">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5882,10 +5882,10 @@
       </c>
       <c r="D307" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.5">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A308">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5900,10 +5900,10 @@
       </c>
       <c r="D308" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.5">
+        <v>23.849999999999998</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A309">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5918,10 +5918,10 @@
       </c>
       <c r="D309" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>11.299999999999999</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.5">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A310">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5936,10 +5936,10 @@
       </c>
       <c r="D310" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>9.15</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A311">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5954,10 +5954,10 @@
       </c>
       <c r="D311" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>5.9499999999999993</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A312">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5972,10 +5972,10 @@
       </c>
       <c r="D312" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A313">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A314">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A315">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A316">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6047,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A317">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6062,10 +6062,10 @@
       </c>
       <c r="D317" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>3.6799999999999997</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.1799999999999997</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A318">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6080,10 +6080,10 @@
       </c>
       <c r="D318" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.6499999999999995</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A319">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6098,10 +6098,10 @@
       </c>
       <c r="D319" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>8.1000000000000014</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A320">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6116,10 +6116,10 @@
       </c>
       <c r="D320" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.5">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A321">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6134,10 +6134,10 @@
       </c>
       <c r="D321" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.5">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A322">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6152,10 +6152,10 @@
       </c>
       <c r="D322" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>19.950000000000003</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A323">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6170,10 +6170,10 @@
       </c>
       <c r="D323" s="2">
         <f t="shared" ref="D323:D386" ca="1" si="29">(RANDBETWEEN(10,130)/100+1)*C323</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.5">
+        <v>13.900000000000002</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A324">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6188,10 +6188,10 @@
       </c>
       <c r="D324" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>8.1499999999999986</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A325">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6206,10 +6206,10 @@
       </c>
       <c r="D325" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.5500000000000007</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A326">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6224,10 +6224,10 @@
       </c>
       <c r="D326" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A327">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6242,10 +6242,10 @@
       </c>
       <c r="D327" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.3500000000000014</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A328">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6260,10 +6260,10 @@
       </c>
       <c r="D328" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A329">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6278,10 +6278,10 @@
       </c>
       <c r="D329" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A330">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6296,10 +6296,10 @@
       </c>
       <c r="D330" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>21.7</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A331">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6314,10 +6314,10 @@
       </c>
       <c r="D331" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>29.6</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.5">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A332">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6332,10 +6332,10 @@
       </c>
       <c r="D332" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>24.45</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.5">
+        <v>31.650000000000006</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A333">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6350,10 +6350,10 @@
       </c>
       <c r="D333" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.299999999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A334">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6368,10 +6368,10 @@
       </c>
       <c r="D334" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A335">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6386,10 +6386,10 @@
       </c>
       <c r="D335" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.7999999999999989</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A336">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6404,10 +6404,10 @@
       </c>
       <c r="D336" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A337">
         <f t="shared" si="25"/>
         <v>14</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A338">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A339">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6461,7 +6461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A340">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A341">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6494,10 +6494,10 @@
       </c>
       <c r="D341" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A342">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6512,10 +6512,10 @@
       </c>
       <c r="D342" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1499999999999995</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A343">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6530,10 +6530,10 @@
       </c>
       <c r="D343" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.9500000000000011</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A344">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6548,10 +6548,10 @@
       </c>
       <c r="D344" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A345">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6566,10 +6566,10 @@
       </c>
       <c r="D345" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.5">
+        <v>40.199999999999996</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A346">
         <f t="shared" si="25"/>
         <v>15</v>
@@ -6584,10 +6584,10 @@
       </c>
       <c r="D346" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.650000000000002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A347">
         <f t="shared" ref="A347:A410" si="31">A323+1</f>
         <v>15</v>
@@ -6602,10 +6602,10 @@
       </c>
       <c r="D347" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>18.3</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A348">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6620,10 +6620,10 @@
       </c>
       <c r="D348" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.5500000000000007</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.9500000000000011</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A349">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6638,10 +6638,10 @@
       </c>
       <c r="D349" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A350">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6656,10 +6656,10 @@
       </c>
       <c r="D350" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>5.6000000000000005</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A351">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6674,10 +6674,10 @@
       </c>
       <c r="D351" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>7.1499999999999995</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A352">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6692,10 +6692,10 @@
       </c>
       <c r="D352" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.65</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A353">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6710,10 +6710,10 @@
       </c>
       <c r="D353" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>5.8999999999999995</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A354">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6728,10 +6728,10 @@
       </c>
       <c r="D354" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A355">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6746,10 +6746,10 @@
       </c>
       <c r="D355" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>39.4</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.5">
+        <v>42.2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A356">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6764,10 +6764,10 @@
       </c>
       <c r="D356" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>27.9</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.5">
+        <v>29.55</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A357">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6782,10 +6782,10 @@
       </c>
       <c r="D357" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>22.1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A358">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6800,10 +6800,10 @@
       </c>
       <c r="D358" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A359">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6818,10 +6818,10 @@
       </c>
       <c r="D359" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A360">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6836,10 +6836,10 @@
       </c>
       <c r="D360" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A361">
         <f t="shared" si="31"/>
         <v>15</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A362">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6875,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A363">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A364">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A365">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6926,10 +6926,10 @@
       </c>
       <c r="D365" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>3.88</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.2200000000000006</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A366">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6944,10 +6944,10 @@
       </c>
       <c r="D366" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A367">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6962,10 +6962,10 @@
       </c>
       <c r="D367" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.150000000000002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A368">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6980,10 +6980,10 @@
       </c>
       <c r="D368" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>22.800000000000004</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.5">
+        <v>22.199999999999996</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A369">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -6998,10 +6998,10 @@
       </c>
       <c r="D369" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>23.799999999999997</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A370">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7016,10 +7016,10 @@
       </c>
       <c r="D370" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>28.799999999999997</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.5">
+        <v>26.55</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A371">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7034,10 +7034,10 @@
       </c>
       <c r="D371" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.5">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A372">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7052,10 +7052,10 @@
       </c>
       <c r="D372" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A373">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7070,10 +7070,10 @@
       </c>
       <c r="D373" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>7.8000000000000007</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A374">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7088,10 +7088,10 @@
       </c>
       <c r="D374" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.6000000000000005</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A375">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7106,10 +7106,10 @@
       </c>
       <c r="D375" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A376">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7124,10 +7124,10 @@
       </c>
       <c r="D376" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.5500000000000007</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A377">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7142,10 +7142,10 @@
       </c>
       <c r="D377" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A378">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7160,10 +7160,10 @@
       </c>
       <c r="D378" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>11.400000000000002</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A379">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7178,10 +7178,10 @@
       </c>
       <c r="D379" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>37.800000000000004</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.5">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A380">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7196,10 +7196,10 @@
       </c>
       <c r="D380" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>34.200000000000003</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.5">
+        <v>34.35</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A381">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7214,10 +7214,10 @@
       </c>
       <c r="D381" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>15.4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A382">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7232,10 +7232,10 @@
       </c>
       <c r="D382" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A383">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7250,10 +7250,10 @@
       </c>
       <c r="D383" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A384">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7268,10 +7268,10 @@
       </c>
       <c r="D384" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A385">
         <f t="shared" si="31"/>
         <v>16</v>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A386">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7307,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A387">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7325,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A388">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A389">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7358,10 +7358,10 @@
       </c>
       <c r="D389" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>2.74</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A390">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7376,10 +7376,10 @@
       </c>
       <c r="D390" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>11.05</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A391">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7394,10 +7394,10 @@
       </c>
       <c r="D391" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>10.600000000000001</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A392">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7412,10 +7412,10 @@
       </c>
       <c r="D392" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.5">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A393">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7430,10 +7430,10 @@
       </c>
       <c r="D393" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A394">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7448,10 +7448,10 @@
       </c>
       <c r="D394" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.5">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A395">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7466,10 +7466,10 @@
       </c>
       <c r="D395" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>13.599999999999998</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.5">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A396">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7484,10 +7484,10 @@
       </c>
       <c r="D396" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>7.9499999999999993</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A397">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7502,10 +7502,10 @@
       </c>
       <c r="D397" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A398">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7520,10 +7520,10 @@
       </c>
       <c r="D398" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>8.1499999999999986</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.05</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A399">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7538,10 +7538,10 @@
       </c>
       <c r="D399" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A400">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7556,10 +7556,10 @@
       </c>
       <c r="D400" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>6.7999999999999989</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.1499999999999986</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A401">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7574,10 +7574,10 @@
       </c>
       <c r="D401" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.85</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A402">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7592,10 +7592,10 @@
       </c>
       <c r="D402" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.5">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A403">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7610,10 +7610,10 @@
       </c>
       <c r="D403" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>40.600000000000009</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.5">
+        <v>34.200000000000003</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A404">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7628,10 +7628,10 @@
       </c>
       <c r="D404" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>24.3</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A405">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7646,10 +7646,10 @@
       </c>
       <c r="D405" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>22.599999999999998</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A406">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7664,10 +7664,10 @@
       </c>
       <c r="D406" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>8.9499999999999993</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A407">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7682,10 +7682,10 @@
       </c>
       <c r="D407" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>6.05</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.5500000000000007</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A408">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7700,10 +7700,10 @@
       </c>
       <c r="D408" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>2.46</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.5">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A409">
         <f t="shared" si="31"/>
         <v>17</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A410">
         <f t="shared" si="31"/>
         <v>18</v>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A411">
         <f t="shared" ref="A411:A474" si="37">A387+1</f>
         <v>18</v>
@@ -7757,7 +7757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A412">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A413">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7790,10 +7790,10 @@
       </c>
       <c r="D413" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>3.8200000000000003</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A414">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7808,10 +7808,10 @@
       </c>
       <c r="D414" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A415">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7826,10 +7826,10 @@
       </c>
       <c r="D415" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A416">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7844,10 +7844,10 @@
       </c>
       <c r="D416" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>17.8</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.5">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A417">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7862,10 +7862,10 @@
       </c>
       <c r="D417" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.5">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A418">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7880,10 +7880,10 @@
       </c>
       <c r="D418" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.05</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A419">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7898,10 +7898,10 @@
       </c>
       <c r="D419" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>20.6</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.5">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A420">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7916,10 +7916,10 @@
       </c>
       <c r="D420" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.9499999999999993</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A421">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7934,10 +7934,10 @@
       </c>
       <c r="D421" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A422">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7952,10 +7952,10 @@
       </c>
       <c r="D422" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A423">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7970,10 +7970,10 @@
       </c>
       <c r="D423" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A424">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -7988,10 +7988,10 @@
       </c>
       <c r="D424" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A425">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8006,10 +8006,10 @@
       </c>
       <c r="D425" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A426">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8024,10 +8024,10 @@
       </c>
       <c r="D426" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>15.3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.5">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A427">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8042,10 +8042,10 @@
       </c>
       <c r="D427" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>36.6</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.5">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A428">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8060,10 +8060,10 @@
       </c>
       <c r="D428" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>21.599999999999998</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.5">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A429">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8078,10 +8078,10 @@
       </c>
       <c r="D429" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>13.900000000000002</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.5">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A430">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8096,10 +8096,10 @@
       </c>
       <c r="D430" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>10.649999999999999</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A431">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8114,10 +8114,10 @@
       </c>
       <c r="D431" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.5500000000000007</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A432">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8132,10 +8132,10 @@
       </c>
       <c r="D432" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>4.58</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A433">
         <f t="shared" si="37"/>
         <v>18</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A434">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A435">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A436">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A437">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8222,10 +8222,10 @@
       </c>
       <c r="D437" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>3.8200000000000003</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.54</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A438">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8240,10 +8240,10 @@
       </c>
       <c r="D438" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>8.1499999999999986</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.0499999999999989</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A439">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8258,10 +8258,10 @@
       </c>
       <c r="D439" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A440">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8276,10 +8276,10 @@
       </c>
       <c r="D440" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A441">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8294,10 +8294,10 @@
       </c>
       <c r="D441" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>31.799999999999997</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.5">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A442">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8312,10 +8312,10 @@
       </c>
       <c r="D442" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.5">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A443">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8330,10 +8330,10 @@
       </c>
       <c r="D443" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>19.3</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.5">
+        <v>21.799999999999997</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A444">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8348,10 +8348,10 @@
       </c>
       <c r="D444" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>9.85</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A445">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8366,10 +8366,10 @@
       </c>
       <c r="D445" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.5">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A446">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8384,10 +8384,10 @@
       </c>
       <c r="D446" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>11.25</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A447">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8402,10 +8402,10 @@
       </c>
       <c r="D447" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A448">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8420,10 +8420,10 @@
       </c>
       <c r="D448" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A449">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8438,10 +8438,10 @@
       </c>
       <c r="D449" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A450">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8456,10 +8456,10 @@
       </c>
       <c r="D450" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>14.399999999999999</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.5">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A451">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8474,10 +8474,10 @@
       </c>
       <c r="D451" s="2">
         <f t="shared" ref="D451:D480" ca="1" si="41">(RANDBETWEEN(10,130)/100+1)*C451</f>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A452">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8492,10 +8492,10 @@
       </c>
       <c r="D452" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>29.85</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.5">
+        <v>28.950000000000003</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A453">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8510,10 +8510,10 @@
       </c>
       <c r="D453" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>19.7</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.5">
+        <v>14.399999999999999</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A454">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8528,10 +8528,10 @@
       </c>
       <c r="D454" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>9.3500000000000014</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A455">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8546,10 +8546,10 @@
       </c>
       <c r="D455" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.9500000000000011</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A456">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8564,10 +8564,10 @@
       </c>
       <c r="D456" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>3.24</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.5">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A457">
         <f t="shared" si="37"/>
         <v>19</v>
@@ -8585,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A458">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A459">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A460">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A461">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8654,10 +8654,10 @@
       </c>
       <c r="D461" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>3.92</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.5">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A462">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8672,10 +8672,10 @@
       </c>
       <c r="D462" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>6.7999999999999989</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A463">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8690,10 +8690,10 @@
       </c>
       <c r="D463" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>8.85</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.5">
+        <v>10.049999999999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A464">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8708,10 +8708,10 @@
       </c>
       <c r="D464" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.5">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A465">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8726,10 +8726,10 @@
       </c>
       <c r="D465" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>27.599999999999998</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.5">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A466">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8744,10 +8744,10 @@
       </c>
       <c r="D466" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>25.65</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.5">
+        <v>27.75</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A467">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8762,10 +8762,10 @@
       </c>
       <c r="D467" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.5">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A468">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8780,10 +8780,10 @@
       </c>
       <c r="D468" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>7.35</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.0499999999999989</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A469">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8798,10 +8798,10 @@
       </c>
       <c r="D469" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.7999999999999989</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A470">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8816,10 +8816,10 @@
       </c>
       <c r="D470" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>11.45</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A471">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8834,10 +8834,10 @@
       </c>
       <c r="D471" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.1000000000000014</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A472">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8852,10 +8852,10 @@
       </c>
       <c r="D472" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>7.1999999999999993</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.5">
+        <v>9.3500000000000014</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A473">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8870,10 +8870,10 @@
       </c>
       <c r="D473" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>10.150000000000002</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.5">
+        <v>8.35</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A474">
         <f t="shared" si="37"/>
         <v>20</v>
@@ -8888,10 +8888,10 @@
       </c>
       <c r="D474" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>21.200000000000003</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A475">
         <f t="shared" ref="A475:A480" si="43">A451+1</f>
         <v>20</v>
@@ -8906,10 +8906,10 @@
       </c>
       <c r="D475" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>38.799999999999997</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.5">
+        <v>32.400000000000006</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A476">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -8924,10 +8924,10 @@
       </c>
       <c r="D476" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>25.049999999999997</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.5">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A477">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -8942,10 +8942,10 @@
       </c>
       <c r="D477" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>19.100000000000001</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.5">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A478">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -8960,10 +8960,10 @@
       </c>
       <c r="D478" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>6.65</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.5">
+        <v>7.1999999999999993</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A479">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -8978,10 +8978,10 @@
       </c>
       <c r="D479" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.5">
+        <v>6.7999999999999989</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A480">
         <f t="shared" si="43"/>
         <v>20</v>
@@ -8996,7 +8996,7 @@
       </c>
       <c r="D480" s="2">
         <f t="shared" ca="1" si="41"/>
-        <v>4.2799999999999994</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>
